--- a/sensado por niveles/Sensado por niveles.xlsx
+++ b/sensado por niveles/Sensado por niveles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhane\Desktop\S9\Taller de Electronica\Proyecto-Taller-de-Electronica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhane\Desktop\S9\Taller de Electronica\Proyecto-Taller-de-Electronica\sensado por niveles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D746BC65-5827-4D2F-B3AE-4EAB541902DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30277EF3-A3A7-47EB-B022-514A3A6A8AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="12960" xr2:uid="{9F7D77EE-C8AF-4477-A516-69DC36D25C3C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ZONA 1</t>
   </si>
@@ -51,9 +51,6 @@
     <t>NIVEL 2</t>
   </si>
   <si>
-    <t>NIVEL 3</t>
-  </si>
-  <si>
     <t>Sensor 1</t>
   </si>
   <si>
@@ -64,12 +61,6 @@
   </si>
   <si>
     <t>Sensor 4</t>
-  </si>
-  <si>
-    <t>Sensor 5</t>
-  </si>
-  <si>
-    <t>Sensor 6</t>
   </si>
 </sst>
 </file>
@@ -204,6 +195,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -241,7 +233,7 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t> 4</m:t>
+                          <m:t> 3</m:t>
                         </m:r>
                       </m:num>
                       <m:den>
@@ -303,11 +295,12 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>(𝑆𝑒𝑛𝑠𝑜𝑟 1+𝑆𝑒𝑛𝑠𝑜𝑟 4)/2</a:t>
+                <a:t>(𝑆𝑒𝑛𝑠𝑜𝑟 1+𝑆𝑒𝑛𝑠𝑜𝑟 3)/2</a:t>
               </a:r>
               <a:endParaRPr lang="es-CO" sz="1100"/>
             </a:p>
@@ -368,6 +361,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -405,7 +399,7 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t> 5</m:t>
+                          <m:t> 4</m:t>
                         </m:r>
                       </m:num>
                       <m:den>
@@ -467,175 +461,12 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>(𝑆𝑒𝑛𝑠𝑜𝑟 2+𝑆𝑒𝑛𝑠𝑜𝑟 5)/2</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-CO" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>272563</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>489439</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1290161" cy="316882"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B220A2-3A7F-4730-9E74-15C0C53CCFE0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3314701" y="3373316"/>
-              <a:ext cx="1290161" cy="316882"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑆𝑒𝑛𝑠𝑜𝑟</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t> 3+</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑆𝑒𝑛𝑠𝑜𝑟</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t> 6</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="es-CO" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B220A2-3A7F-4730-9E74-15C0C53CCFE0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3314701" y="3373316"/>
-              <a:ext cx="1290161" cy="316882"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(𝑆𝑒𝑛𝑠𝑜𝑟 3+𝑆𝑒𝑛𝑠𝑜𝑟 6)/2</a:t>
+                <a:t>(𝑆𝑒𝑛𝑠𝑜𝑟 2+𝑆𝑒𝑛𝑠𝑜𝑟 4)/2</a:t>
               </a:r>
               <a:endParaRPr lang="es-CO" sz="1100"/>
             </a:p>
@@ -945,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D04EB5-E1AE-4137-AF76-181299F065FB}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="B2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,11 +805,11 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="99" customHeight="1" x14ac:dyDescent="0.3">
@@ -986,23 +817,11 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
